--- a/merlin_abnormal_point_results.xlsx
+++ b/merlin_abnormal_point_results.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:LZ30"/>
+  <dimension ref="A1:MY30"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2066,55 +2066,180 @@
       </c>
       <c r="LP1" s="1" t="inlineStr">
         <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LQ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LR1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LS1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LT1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LU1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LV1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LW1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LX1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LY1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="LZ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MA1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MB1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MC1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MD1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="ME1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MF1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MG1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MH1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MI1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MJ1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MK1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="ML1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MM1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MN1" s="1" t="inlineStr">
+        <is>
+          <t>Unnamed: 0.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1.1</t>
+        </is>
+      </c>
+      <c r="MO1" s="1" t="inlineStr">
+        <is>
           <t>Note</t>
         </is>
       </c>
-      <c r="LQ1" s="1" t="inlineStr">
+      <c r="MP1" s="1" t="inlineStr">
         <is>
           <t>Dataset</t>
         </is>
       </c>
-      <c r="LR1" s="1" t="inlineStr">
+      <c r="MQ1" s="1" t="inlineStr">
         <is>
           <t>Dataset length</t>
         </is>
       </c>
-      <c r="LS1" s="1" t="inlineStr">
+      <c r="MR1" s="1" t="inlineStr">
         <is>
           <t>Type</t>
         </is>
       </c>
-      <c r="LT1" s="1" t="inlineStr">
+      <c r="MS1" s="1" t="inlineStr">
         <is>
           <t>#discords</t>
         </is>
       </c>
-      <c r="LU1" s="1" t="inlineStr">
+      <c r="MT1" s="1" t="inlineStr">
         <is>
           <t>Position discord</t>
         </is>
       </c>
-      <c r="LV1" s="1" t="inlineStr">
+      <c r="MU1" s="1" t="inlineStr">
         <is>
           <t>discord length</t>
         </is>
       </c>
-      <c r="LW1" s="1" t="inlineStr">
+      <c r="MV1" s="1" t="inlineStr">
         <is>
           <t>KitNet_identified</t>
         </is>
       </c>
-      <c r="LX1" s="1" t="inlineStr">
+      <c r="MW1" s="1" t="inlineStr">
         <is>
           <t>KitNet_Overlap_merlin</t>
         </is>
       </c>
-      <c r="LY1" s="1" t="inlineStr">
+      <c r="MX1" s="1" t="inlineStr">
         <is>
           <t>KitNetbest_param</t>
         </is>
       </c>
-      <c r="LZ1" s="1" t="inlineStr">
+      <c r="MY1" s="1" t="inlineStr">
         <is>
           <t>KitNettime_taken</t>
         </is>
@@ -3102,46 +3227,121 @@
       <c r="LO2" t="n">
         <v>0</v>
       </c>
-      <c r="LP2" t="inlineStr"/>
-      <c r="LQ2" t="inlineStr">
+      <c r="LP2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LQ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LR2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LS2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LT2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LU2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LV2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LX2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LY2" t="n">
+        <v>0</v>
+      </c>
+      <c r="LZ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MA2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MB2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MC2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MD2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ME2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MF2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MG2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MH2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MI2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MJ2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MK2" t="n">
+        <v>0</v>
+      </c>
+      <c r="ML2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MM2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MN2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MO2" t="inlineStr"/>
+      <c r="MP2" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_24ae8d.csv</t>
         </is>
       </c>
-      <c r="LR2" t="n">
+      <c r="MQ2" t="n">
         <v>4032</v>
       </c>
-      <c r="LS2" t="inlineStr">
+      <c r="MR2" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT2" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU2" t="inlineStr">
+      <c r="MS2" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT2" t="inlineStr">
         <is>
           <t>3447; 3677</t>
         </is>
       </c>
-      <c r="LV2" t="n">
+      <c r="MU2" t="n">
         <v>200</v>
       </c>
-      <c r="LW2" t="inlineStr">
-        <is>
-          <t>[5, 3547]</t>
-        </is>
-      </c>
-      <c r="LX2" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY2" t="inlineStr">
-        <is>
-          <t>{'window_size': 299}</t>
-        </is>
-      </c>
-      <c r="LZ2" t="n">
-        <v>0</v>
+      <c r="MV2" t="inlineStr">
+        <is>
+          <t>[427, 428, 429, 430, 431, 432, 471]</t>
+        </is>
+      </c>
+      <c r="MW2" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX2" t="inlineStr">
+        <is>
+          <t>{'window_size': 426}</t>
+        </is>
+      </c>
+      <c r="MY2" t="n">
+        <v>800</v>
       </c>
     </row>
     <row r="3">
@@ -4126,46 +4326,121 @@
       <c r="LO3" t="n">
         <v>1</v>
       </c>
-      <c r="LP3" t="inlineStr"/>
-      <c r="LQ3" t="inlineStr">
+      <c r="LP3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LQ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LR3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LS3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LT3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LU3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LV3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LW3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LX3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LY3" t="n">
+        <v>1</v>
+      </c>
+      <c r="LZ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MA3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MB3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MC3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MD3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ME3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MF3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MG3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MH3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MI3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MJ3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MK3" t="n">
+        <v>1</v>
+      </c>
+      <c r="ML3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MM3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MN3" t="n">
+        <v>1</v>
+      </c>
+      <c r="MO3" t="inlineStr"/>
+      <c r="MP3" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_53ea38.csv</t>
         </is>
       </c>
-      <c r="LR3" t="n">
+      <c r="MQ3" t="n">
         <v>4032</v>
       </c>
-      <c r="LS3" t="inlineStr">
+      <c r="MR3" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT3" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU3" t="inlineStr">
+      <c r="MS3" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT3" t="inlineStr">
         <is>
           <t>1396; 2559</t>
         </is>
       </c>
-      <c r="LV3" t="n">
+      <c r="MU3" t="n">
         <v>200</v>
       </c>
-      <c r="LW3" t="inlineStr">
-        <is>
-          <t>[5, 2456]</t>
-        </is>
-      </c>
-      <c r="LX3" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY3" t="inlineStr">
-        <is>
-          <t>{'window_size': 1001}</t>
-        </is>
-      </c>
-      <c r="LZ3" t="n">
-        <v>0</v>
+      <c r="MV3" t="inlineStr">
+        <is>
+          <t>[231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 255, 2521]</t>
+        </is>
+      </c>
+      <c r="MW3" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX3" t="inlineStr">
+        <is>
+          <t>{'window_size': 230}</t>
+        </is>
+      </c>
+      <c r="MY3" t="n">
+        <v>470</v>
       </c>
     </row>
     <row r="4">
@@ -5150,46 +5425,121 @@
       <c r="LO4" t="n">
         <v>2</v>
       </c>
-      <c r="LP4" t="inlineStr"/>
-      <c r="LQ4" t="inlineStr">
+      <c r="LP4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LQ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LR4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LT4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LU4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LV4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LW4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LX4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LY4" t="n">
+        <v>2</v>
+      </c>
+      <c r="LZ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MD4" t="n">
+        <v>2</v>
+      </c>
+      <c r="ME4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MF4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MG4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MH4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MI4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MK4" t="n">
+        <v>2</v>
+      </c>
+      <c r="ML4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MM4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MN4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MO4" t="inlineStr"/>
+      <c r="MP4" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_5f5533.csv</t>
         </is>
       </c>
-      <c r="LR4" t="n">
+      <c r="MQ4" t="n">
         <v>4032</v>
       </c>
-      <c r="LS4" t="inlineStr">
+      <c r="MR4" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT4" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU4" t="inlineStr">
+      <c r="MS4" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT4" t="inlineStr">
         <is>
           <t>1171; 2830</t>
         </is>
       </c>
-      <c r="LV4" t="n">
+      <c r="MU4" t="n">
         <v>200</v>
       </c>
-      <c r="LW4" t="inlineStr">
-        <is>
-          <t>[5, 2967]</t>
-        </is>
-      </c>
-      <c r="LX4" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY4" t="inlineStr">
-        <is>
-          <t>{'window_size': 711}</t>
-        </is>
-      </c>
-      <c r="LZ4" t="n">
-        <v>0</v>
+      <c r="MV4" t="inlineStr">
+        <is>
+          <t>[487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 508, 511, 2930]</t>
+        </is>
+      </c>
+      <c r="MW4" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX4" t="inlineStr">
+        <is>
+          <t>{'window_size': 486}</t>
+        </is>
+      </c>
+      <c r="MY4" t="n">
+        <v>903</v>
       </c>
     </row>
     <row r="5">
@@ -6174,46 +6524,121 @@
       <c r="LO5" t="n">
         <v>3</v>
       </c>
-      <c r="LP5" t="inlineStr"/>
-      <c r="LQ5" t="inlineStr">
+      <c r="LP5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LQ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LR5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LS5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LT5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LU5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LV5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LW5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LX5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LY5" t="n">
+        <v>3</v>
+      </c>
+      <c r="LZ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MA5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MB5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MD5" t="n">
+        <v>3</v>
+      </c>
+      <c r="ME5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MF5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MG5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MH5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MI5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MJ5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MK5" t="n">
+        <v>3</v>
+      </c>
+      <c r="ML5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MM5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MN5" t="n">
+        <v>3</v>
+      </c>
+      <c r="MO5" t="inlineStr"/>
+      <c r="MP5" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_77c1ca.csv</t>
         </is>
       </c>
-      <c r="LR5" t="n">
+      <c r="MQ5" t="n">
         <v>4032</v>
       </c>
-      <c r="LS5" t="inlineStr">
+      <c r="MR5" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT5" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU5" t="inlineStr">
+      <c r="MS5" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT5" t="inlineStr">
         <is>
           <t>1765</t>
         </is>
       </c>
-      <c r="LV5" t="n">
+      <c r="MU5" t="n">
         <v>402</v>
       </c>
-      <c r="LW5" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX5" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY5" t="inlineStr">
-        <is>
-          <t>{'window_size': 1382}</t>
-        </is>
-      </c>
-      <c r="LZ5" t="n">
-        <v>0</v>
+      <c r="MV5" t="inlineStr">
+        <is>
+          <t>[807]</t>
+        </is>
+      </c>
+      <c r="MW5" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX5" t="inlineStr">
+        <is>
+          <t>{'window_size': 806}</t>
+        </is>
+      </c>
+      <c r="MY5" t="n">
+        <v>1236</v>
       </c>
     </row>
     <row r="6">
@@ -7198,46 +7623,121 @@
       <c r="LO6" t="n">
         <v>4</v>
       </c>
-      <c r="LP6" t="inlineStr"/>
-      <c r="LQ6" t="inlineStr">
+      <c r="LP6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LQ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LR6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LS6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LT6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LU6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LV6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LW6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LX6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LY6" t="n">
+        <v>4</v>
+      </c>
+      <c r="LZ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MA6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MB6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MC6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MD6" t="n">
+        <v>4</v>
+      </c>
+      <c r="ME6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MF6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MG6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MH6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MI6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MJ6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MK6" t="n">
+        <v>4</v>
+      </c>
+      <c r="ML6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MM6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MN6" t="n">
+        <v>4</v>
+      </c>
+      <c r="MO6" t="inlineStr"/>
+      <c r="MP6" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_825cc2.csv</t>
         </is>
       </c>
-      <c r="LR6" t="n">
+      <c r="MQ6" t="n">
         <v>4032</v>
       </c>
-      <c r="LS6" t="inlineStr">
+      <c r="MR6" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT6" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU6" t="inlineStr">
+      <c r="MS6" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT6" t="inlineStr">
         <is>
           <t>1526</t>
         </is>
       </c>
-      <c r="LV6" t="n">
+      <c r="MU6" t="n">
         <v>342</v>
       </c>
-      <c r="LW6" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX6" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY6" t="inlineStr">
-        <is>
-          <t>{'window_size': 1815}</t>
-        </is>
-      </c>
-      <c r="LZ6" t="n">
-        <v>0</v>
+      <c r="MV6" t="inlineStr">
+        <is>
+          <t>[478]</t>
+        </is>
+      </c>
+      <c r="MW6" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX6" t="inlineStr">
+        <is>
+          <t>{'window_size': 477}</t>
+        </is>
+      </c>
+      <c r="MY6" t="n">
+        <v>880</v>
       </c>
     </row>
     <row r="7">
@@ -8222,46 +8722,121 @@
       <c r="LO7" t="n">
         <v>5</v>
       </c>
-      <c r="LP7" t="inlineStr"/>
-      <c r="LQ7" t="inlineStr">
+      <c r="LP7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LQ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LR7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LS7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LT7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LU7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LV7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LW7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LX7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LY7" t="n">
+        <v>5</v>
+      </c>
+      <c r="LZ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MC7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MD7" t="n">
+        <v>5</v>
+      </c>
+      <c r="ME7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MF7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MG7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MH7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MI7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MJ7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MK7" t="n">
+        <v>5</v>
+      </c>
+      <c r="ML7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MM7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MN7" t="n">
+        <v>5</v>
+      </c>
+      <c r="MO7" t="inlineStr"/>
+      <c r="MP7" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_ac20cd.csv</t>
         </is>
       </c>
-      <c r="LR7" t="n">
+      <c r="MQ7" t="n">
         <v>4032</v>
       </c>
-      <c r="LS7" t="inlineStr">
+      <c r="MR7" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT7" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU7" t="inlineStr">
+      <c r="MS7" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT7" t="inlineStr">
         <is>
           <t>3374</t>
         </is>
       </c>
-      <c r="LV7" t="n">
+      <c r="MU7" t="n">
         <v>402</v>
       </c>
-      <c r="LW7" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX7" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY7" t="inlineStr">
-        <is>
-          <t>{'window_size': 537}</t>
-        </is>
-      </c>
-      <c r="LZ7" t="n">
-        <v>0</v>
+      <c r="MV7" t="inlineStr">
+        <is>
+          <t>[758]</t>
+        </is>
+      </c>
+      <c r="MW7" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX7" t="inlineStr">
+        <is>
+          <t>{'window_size': 757}</t>
+        </is>
+      </c>
+      <c r="MY7" t="n">
+        <v>1180</v>
       </c>
     </row>
     <row r="8">
@@ -9246,46 +9821,121 @@
       <c r="LO8" t="n">
         <v>6</v>
       </c>
-      <c r="LP8" t="inlineStr"/>
-      <c r="LQ8" t="inlineStr">
+      <c r="LP8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LQ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LR8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LS8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LT8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LU8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LV8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LW8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LX8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LY8" t="n">
+        <v>6</v>
+      </c>
+      <c r="LZ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MA8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MB8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MD8" t="n">
+        <v>6</v>
+      </c>
+      <c r="ME8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MF8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MG8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MH8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MI8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MJ8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MK8" t="n">
+        <v>6</v>
+      </c>
+      <c r="ML8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MM8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MN8" t="n">
+        <v>6</v>
+      </c>
+      <c r="MO8" t="inlineStr"/>
+      <c r="MP8" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_cpu_utilization_fe7f93.csv</t>
         </is>
       </c>
-      <c r="LR8" t="n">
+      <c r="MQ8" t="n">
         <v>4032</v>
       </c>
-      <c r="LS8" t="inlineStr">
+      <c r="MR8" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT8" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU8" t="inlineStr">
+      <c r="MS8" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT8" t="inlineStr">
         <is>
           <t>698; 2064; 2535</t>
         </is>
       </c>
-      <c r="LV8" t="n">
+      <c r="MU8" t="n">
         <v>134</v>
       </c>
-      <c r="LW8" t="inlineStr">
-        <is>
-          <t>[5, 2129, 2130, 3920]</t>
-        </is>
-      </c>
-      <c r="LX8" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY8" t="inlineStr">
-        <is>
-          <t>{'window_size': 1208}</t>
-        </is>
-      </c>
-      <c r="LZ8" t="n">
-        <v>0</v>
+      <c r="MV8" t="inlineStr">
+        <is>
+          <t>[639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 1668]</t>
+        </is>
+      </c>
+      <c r="MW8" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX8" t="inlineStr">
+        <is>
+          <t>{'window_size': 638}</t>
+        </is>
+      </c>
+      <c r="MY8" t="n">
+        <v>1141</v>
       </c>
     </row>
     <row r="9">
@@ -10270,46 +10920,121 @@
       <c r="LO9" t="n">
         <v>7</v>
       </c>
-      <c r="LP9" t="inlineStr"/>
-      <c r="LQ9" t="inlineStr">
+      <c r="LP9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LQ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LR9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LS9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LT9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LU9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LV9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LW9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LX9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LY9" t="n">
+        <v>7</v>
+      </c>
+      <c r="LZ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MA9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MB9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MC9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MD9" t="n">
+        <v>7</v>
+      </c>
+      <c r="ME9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MF9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MG9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MH9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MI9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MJ9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MK9" t="n">
+        <v>7</v>
+      </c>
+      <c r="ML9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MM9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MN9" t="n">
+        <v>7</v>
+      </c>
+      <c r="MO9" t="inlineStr"/>
+      <c r="MP9" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_disk_write_bytes_1ef3de.csv</t>
         </is>
       </c>
-      <c r="LR9" t="n">
+      <c r="MQ9" t="n">
         <v>4730</v>
       </c>
-      <c r="LS9" t="inlineStr">
+      <c r="MR9" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT9" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU9" t="inlineStr">
+      <c r="MS9" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT9" t="inlineStr">
         <is>
           <t>2399</t>
         </is>
       </c>
-      <c r="LV9" t="n">
+      <c r="MU9" t="n">
         <v>472</v>
       </c>
-      <c r="LW9" t="inlineStr">
-        <is>
-          <t>[2635]</t>
-        </is>
-      </c>
-      <c r="LX9" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY9" t="inlineStr">
-        <is>
-          <t>{'window_size': 450}</t>
-        </is>
-      </c>
-      <c r="LZ9" t="n">
-        <v>0</v>
+      <c r="MV9" t="inlineStr">
+        <is>
+          <t>[937]</t>
+        </is>
+      </c>
+      <c r="MW9" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX9" t="inlineStr">
+        <is>
+          <t>{'window_size': 936}</t>
+        </is>
+      </c>
+      <c r="MY9" t="n">
+        <v>1606</v>
       </c>
     </row>
     <row r="10">
@@ -11294,46 +12019,121 @@
       <c r="LO10" t="n">
         <v>8</v>
       </c>
-      <c r="LP10" t="inlineStr"/>
-      <c r="LQ10" t="inlineStr">
+      <c r="LP10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LQ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LR10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LS10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LT10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LU10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LV10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LW10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LX10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LY10" t="n">
+        <v>8</v>
+      </c>
+      <c r="LZ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MA10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MC10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MD10" t="n">
+        <v>8</v>
+      </c>
+      <c r="ME10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MF10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MG10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MH10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MI10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MJ10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MK10" t="n">
+        <v>8</v>
+      </c>
+      <c r="ML10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MM10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MN10" t="n">
+        <v>8</v>
+      </c>
+      <c r="MO10" t="inlineStr"/>
+      <c r="MP10" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_disk_write_bytes_c0d644.csv</t>
         </is>
       </c>
-      <c r="LR10" t="n">
+      <c r="MQ10" t="n">
         <v>4032</v>
       </c>
-      <c r="LS10" t="inlineStr">
+      <c r="MR10" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT10" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU10" t="inlineStr">
+      <c r="MS10" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT10" t="inlineStr">
         <is>
           <t>1794; 2239; 2964</t>
         </is>
       </c>
-      <c r="LV10" t="n">
+      <c r="MU10" t="n">
         <v>134</v>
       </c>
-      <c r="LW10" t="inlineStr">
-        <is>
-          <t>[5, 2094, 2306]</t>
-        </is>
-      </c>
-      <c r="LX10" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY10" t="inlineStr">
-        <is>
-          <t>{'window_size': 1726}</t>
-        </is>
-      </c>
-      <c r="LZ10" t="n">
-        <v>0</v>
+      <c r="MV10" t="inlineStr">
+        <is>
+          <t>[854, 855, 856, 857, 1816, 2274]</t>
+        </is>
+      </c>
+      <c r="MW10" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX10" t="inlineStr">
+        <is>
+          <t>{'window_size': 853}</t>
+        </is>
+      </c>
+      <c r="MY10" t="n">
+        <v>1243</v>
       </c>
     </row>
     <row r="11">
@@ -12318,46 +13118,121 @@
       <c r="LO11" t="n">
         <v>9</v>
       </c>
-      <c r="LP11" t="inlineStr"/>
-      <c r="LQ11" t="inlineStr">
+      <c r="LP11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LQ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LR11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LS11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LT11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LU11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LV11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LW11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LX11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LY11" t="n">
+        <v>9</v>
+      </c>
+      <c r="LZ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MA11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MB11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MC11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MD11" t="n">
+        <v>9</v>
+      </c>
+      <c r="ME11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MF11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MG11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MH11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MI11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MJ11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MK11" t="n">
+        <v>9</v>
+      </c>
+      <c r="ML11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MM11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MN11" t="n">
+        <v>9</v>
+      </c>
+      <c r="MO11" t="inlineStr"/>
+      <c r="MP11" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_network_in_257a54.csv</t>
         </is>
       </c>
-      <c r="LR11" t="n">
+      <c r="MQ11" t="n">
         <v>4032</v>
       </c>
-      <c r="LS11" t="inlineStr">
+      <c r="MR11" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT11" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU11" t="inlineStr">
+      <c r="MS11" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT11" t="inlineStr">
         <is>
           <t>1437</t>
         </is>
       </c>
-      <c r="LV11" t="n">
+      <c r="MU11" t="n">
         <v>402</v>
       </c>
-      <c r="LW11" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX11" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY11" t="inlineStr">
-        <is>
-          <t>{'window_size': 284}</t>
-        </is>
-      </c>
-      <c r="LZ11" t="n">
-        <v>0</v>
+      <c r="MV11" t="inlineStr">
+        <is>
+          <t>[802]</t>
+        </is>
+      </c>
+      <c r="MW11" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX11" t="inlineStr">
+        <is>
+          <t>{'window_size': 801}</t>
+        </is>
+      </c>
+      <c r="MY11" t="n">
+        <v>1220</v>
       </c>
     </row>
     <row r="12">
@@ -13342,46 +14217,121 @@
       <c r="LO12" t="n">
         <v>10</v>
       </c>
-      <c r="LP12" t="inlineStr"/>
-      <c r="LQ12" t="inlineStr">
+      <c r="LP12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LQ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LR12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LS12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LT12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LU12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LV12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LW12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LX12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LY12" t="n">
+        <v>10</v>
+      </c>
+      <c r="LZ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MA12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MB12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MC12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MD12" t="n">
+        <v>10</v>
+      </c>
+      <c r="ME12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MF12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MG12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MH12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MI12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MJ12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MK12" t="n">
+        <v>10</v>
+      </c>
+      <c r="ML12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MM12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MN12" t="n">
+        <v>10</v>
+      </c>
+      <c r="MO12" t="inlineStr"/>
+      <c r="MP12" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/ec2_network_in_5abac7.csv</t>
         </is>
       </c>
-      <c r="LR12" t="n">
+      <c r="MQ12" t="n">
         <v>4730</v>
       </c>
-      <c r="LS12" t="inlineStr">
+      <c r="MR12" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT12" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU12" t="inlineStr">
+      <c r="MS12" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT12" t="inlineStr">
         <is>
           <t>2490; 3091</t>
         </is>
       </c>
-      <c r="LV12" t="n">
+      <c r="MU12" t="n">
         <v>236</v>
       </c>
-      <c r="LW12" t="inlineStr">
-        <is>
-          <t>[5, 2610]</t>
-        </is>
-      </c>
-      <c r="LX12" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY12" t="inlineStr">
-        <is>
-          <t>{'window_size': 1553}</t>
-        </is>
-      </c>
-      <c r="LZ12" t="n">
-        <v>0</v>
+      <c r="MV12" t="inlineStr">
+        <is>
+          <t>[506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 547, 548, 2534]</t>
+        </is>
+      </c>
+      <c r="MW12" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX12" t="inlineStr">
+        <is>
+          <t>{'window_size': 505}</t>
+        </is>
+      </c>
+      <c r="MY12" t="n">
+        <v>1113</v>
       </c>
     </row>
     <row r="13">
@@ -14366,46 +15316,121 @@
       <c r="LO13" t="n">
         <v>11</v>
       </c>
-      <c r="LP13" t="inlineStr"/>
-      <c r="LQ13" t="inlineStr">
+      <c r="LP13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LQ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LR13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LS13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LT13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LU13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LV13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LW13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LX13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LY13" t="n">
+        <v>11</v>
+      </c>
+      <c r="LZ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MA13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MB13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MC13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MD13" t="n">
+        <v>11</v>
+      </c>
+      <c r="ME13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MF13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MG13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MH13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MI13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MJ13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MK13" t="n">
+        <v>11</v>
+      </c>
+      <c r="ML13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MM13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MN13" t="n">
+        <v>11</v>
+      </c>
+      <c r="MO13" t="inlineStr"/>
+      <c r="MP13" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/elb_request_count_8c0756.csv</t>
         </is>
       </c>
-      <c r="LR13" t="n">
+      <c r="MQ13" t="n">
         <v>4032</v>
       </c>
-      <c r="LS13" t="inlineStr">
+      <c r="MR13" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT13" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU13" t="inlineStr">
+      <c r="MS13" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT13" t="inlineStr">
         <is>
           <t>683; 3582</t>
         </is>
       </c>
-      <c r="LV13" t="n">
+      <c r="MU13" t="n">
         <v>200</v>
       </c>
-      <c r="LW13" t="inlineStr">
-        <is>
-          <t>[5, 3681]</t>
-        </is>
-      </c>
-      <c r="LX13" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY13" t="inlineStr">
-        <is>
-          <t>{'window_size': 1055}</t>
-        </is>
-      </c>
-      <c r="LZ13" t="n">
-        <v>0</v>
+      <c r="MV13" t="inlineStr">
+        <is>
+          <t>[708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748]</t>
+        </is>
+      </c>
+      <c r="MW13" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX13" t="inlineStr">
+        <is>
+          <t>{'window_size': 707}</t>
+        </is>
+      </c>
+      <c r="MY13" t="n">
+        <v>1137</v>
       </c>
     </row>
     <row r="14">
@@ -15390,46 +16415,121 @@
       <c r="LO14" t="n">
         <v>12</v>
       </c>
-      <c r="LP14" t="inlineStr"/>
-      <c r="LQ14" t="inlineStr">
+      <c r="LP14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LQ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LR14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LS14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LT14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LU14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LV14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LW14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LX14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LY14" t="n">
+        <v>12</v>
+      </c>
+      <c r="LZ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MA14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MB14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MC14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MD14" t="n">
+        <v>12</v>
+      </c>
+      <c r="ME14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MF14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MG14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MH14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MI14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MJ14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MK14" t="n">
+        <v>12</v>
+      </c>
+      <c r="ML14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MM14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MN14" t="n">
+        <v>12</v>
+      </c>
+      <c r="MO14" t="inlineStr"/>
+      <c r="MP14" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/grok_asg_anomaly.csv</t>
         </is>
       </c>
-      <c r="LR14" t="n">
+      <c r="MQ14" t="n">
         <v>4621</v>
       </c>
-      <c r="LS14" t="inlineStr">
+      <c r="MR14" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT14" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU14" t="inlineStr">
+      <c r="MS14" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT14" t="inlineStr">
         <is>
           <t>1177; 1492; 3676</t>
         </is>
       </c>
-      <c r="LV14" t="n">
+      <c r="MU14" t="n">
         <v>154</v>
       </c>
-      <c r="LW14" t="inlineStr">
-        <is>
-          <t>[5, 4303, 4417, 4453, 4565, 4588]</t>
-        </is>
-      </c>
-      <c r="LX14" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY14" t="inlineStr">
-        <is>
-          <t>{'window_size': 1843}</t>
-        </is>
-      </c>
-      <c r="LZ14" t="n">
-        <v>1</v>
+      <c r="MV14" t="inlineStr">
+        <is>
+          <t>[918, 3657, 3658, 3659, 3660, 3661, 3662, 3663, 3664, 3665, 3666, 3667, 3668, 3669, 3670, 3671, 3672, 3673, 3674, 3675, 3676, 3677, 3678, 3679, 3680, 3681, 3682, 3683, 3684, 3685, 3686, 3687, 3688, 3689, 3690, 3691, 3692, 3693, 3694, 3695, 3696, 3697, 3698, 3699, 3700, 3701, 3702, 3703, 3704]</t>
+        </is>
+      </c>
+      <c r="MW14" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX14" t="inlineStr">
+        <is>
+          <t>{'window_size': 917}</t>
+        </is>
+      </c>
+      <c r="MY14" t="n">
+        <v>1539</v>
       </c>
     </row>
     <row r="15">
@@ -16414,46 +17514,121 @@
       <c r="LO15" t="n">
         <v>13</v>
       </c>
-      <c r="LP15" t="inlineStr"/>
-      <c r="LQ15" t="inlineStr">
+      <c r="LP15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LQ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LR15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LS15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LT15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LU15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LV15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LW15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LX15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LY15" t="n">
+        <v>13</v>
+      </c>
+      <c r="LZ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MA15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MB15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MC15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MD15" t="n">
+        <v>13</v>
+      </c>
+      <c r="ME15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MF15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MG15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MH15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MI15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MJ15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MK15" t="n">
+        <v>13</v>
+      </c>
+      <c r="ML15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MM15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MN15" t="n">
+        <v>13</v>
+      </c>
+      <c r="MO15" t="inlineStr"/>
+      <c r="MP15" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/iio_us-east-1_i-a2eb1cd9_NetworkIn.csv</t>
         </is>
       </c>
-      <c r="LR15" t="n">
+      <c r="MQ15" t="n">
         <v>1243</v>
       </c>
-      <c r="LS15" t="inlineStr">
+      <c r="MR15" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT15" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU15" t="inlineStr">
+      <c r="MS15" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT15" t="inlineStr">
         <is>
           <t>218; 308</t>
         </is>
       </c>
-      <c r="LV15" t="n">
+      <c r="MU15" t="n">
         <v>62</v>
       </c>
-      <c r="LW15" t="inlineStr">
-        <is>
-          <t>[5, 204]</t>
-        </is>
-      </c>
-      <c r="LX15" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY15" t="inlineStr">
-        <is>
-          <t>{'window_size': 1271}</t>
-        </is>
-      </c>
-      <c r="LZ15" t="n">
-        <v>0</v>
+      <c r="MV15" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242]</t>
+        </is>
+      </c>
+      <c r="MW15" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX15" t="inlineStr">
+        <is>
+          <t>{'window_size': 758}</t>
+        </is>
+      </c>
+      <c r="MY15" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="16">
@@ -17438,46 +18613,121 @@
       <c r="LO16" t="n">
         <v>14</v>
       </c>
-      <c r="LP16" t="inlineStr"/>
-      <c r="LQ16" t="inlineStr">
+      <c r="LP16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LQ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LR16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LS16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LT16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LU16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LV16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LW16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LX16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LY16" t="n">
+        <v>14</v>
+      </c>
+      <c r="LZ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MA16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MB16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MC16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MD16" t="n">
+        <v>14</v>
+      </c>
+      <c r="ME16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MF16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MG16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MH16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MI16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MJ16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MK16" t="n">
+        <v>14</v>
+      </c>
+      <c r="ML16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MM16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MN16" t="n">
+        <v>14</v>
+      </c>
+      <c r="MO16" t="inlineStr"/>
+      <c r="MP16" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/rds_cpu_utilization_cc0c53.csv</t>
         </is>
       </c>
-      <c r="LR16" t="n">
+      <c r="MQ16" t="n">
         <v>4032</v>
       </c>
-      <c r="LS16" t="inlineStr">
+      <c r="MR16" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT16" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU16" t="inlineStr">
+      <c r="MS16" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT16" t="inlineStr">
         <is>
           <t>2980; 3479</t>
         </is>
       </c>
-      <c r="LV16" t="n">
+      <c r="MU16" t="n">
         <v>200</v>
       </c>
-      <c r="LW16" t="inlineStr">
-        <is>
-          <t>[5, 3079]</t>
-        </is>
-      </c>
-      <c r="LX16" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY16" t="inlineStr">
-        <is>
-          <t>{'window_size': 1269}</t>
-        </is>
-      </c>
-      <c r="LZ16" t="n">
-        <v>0</v>
+      <c r="MV16" t="inlineStr">
+        <is>
+          <t>[401, 3477]</t>
+        </is>
+      </c>
+      <c r="MW16" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX16" t="inlineStr">
+        <is>
+          <t>{'window_size': 400}</t>
+        </is>
+      </c>
+      <c r="MY16" t="n">
+        <v>740</v>
       </c>
     </row>
     <row r="17">
@@ -18462,46 +19712,121 @@
       <c r="LO17" t="n">
         <v>15</v>
       </c>
-      <c r="LP17" t="inlineStr"/>
-      <c r="LQ17" t="inlineStr">
+      <c r="LP17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LQ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LR17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LS17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LT17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LU17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LV17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LW17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LX17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LY17" t="n">
+        <v>15</v>
+      </c>
+      <c r="LZ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MA17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MB17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MC17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MD17" t="n">
+        <v>15</v>
+      </c>
+      <c r="ME17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MF17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MG17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MH17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MI17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MJ17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MK17" t="n">
+        <v>15</v>
+      </c>
+      <c r="ML17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MM17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MN17" t="n">
+        <v>15</v>
+      </c>
+      <c r="MO17" t="inlineStr"/>
+      <c r="MP17" t="inlineStr">
         <is>
           <t>nab-data/realAWSCloudwatch/rds_cpu_utilization_e47b3b.csv</t>
         </is>
       </c>
-      <c r="LR17" t="n">
+      <c r="MQ17" t="n">
         <v>4032</v>
       </c>
-      <c r="LS17" t="inlineStr">
+      <c r="MR17" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT17" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU17" t="inlineStr">
+      <c r="MS17" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT17" t="inlineStr">
         <is>
           <t>846; 2485</t>
         </is>
       </c>
-      <c r="LV17" t="n">
+      <c r="MU17" t="n">
         <v>200</v>
       </c>
-      <c r="LW17" t="inlineStr">
-        <is>
-          <t>[5, 944]</t>
-        </is>
-      </c>
-      <c r="LX17" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY17" t="inlineStr">
-        <is>
-          <t>{'window_size': 627}</t>
-        </is>
-      </c>
-      <c r="LZ17" t="n">
-        <v>0</v>
+      <c r="MV17" t="inlineStr">
+        <is>
+          <t>[528, 2461]</t>
+        </is>
+      </c>
+      <c r="MW17" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX17" t="inlineStr">
+        <is>
+          <t>{'window_size': 527}</t>
+        </is>
+      </c>
+      <c r="MY17" t="n">
+        <v>933</v>
       </c>
     </row>
     <row r="18">
@@ -19486,46 +20811,121 @@
       <c r="LO18" t="n">
         <v>16</v>
       </c>
-      <c r="LP18" t="inlineStr"/>
-      <c r="LQ18" t="inlineStr">
+      <c r="LP18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LQ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LR18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LS18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LT18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LU18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LV18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LW18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LX18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LY18" t="n">
+        <v>16</v>
+      </c>
+      <c r="LZ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MA18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MB18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MC18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MD18" t="n">
+        <v>16</v>
+      </c>
+      <c r="ME18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MF18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MG18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MH18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MI18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MJ18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MK18" t="n">
+        <v>16</v>
+      </c>
+      <c r="ML18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MM18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MN18" t="n">
+        <v>16</v>
+      </c>
+      <c r="MO18" t="inlineStr"/>
+      <c r="MP18" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-2_cpc_results.csv</t>
         </is>
       </c>
-      <c r="LR18" t="n">
+      <c r="MQ18" t="n">
         <v>1624</v>
       </c>
-      <c r="LS18" t="inlineStr">
+      <c r="MR18" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT18" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU18" t="inlineStr">
+      <c r="MS18" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT18" t="inlineStr">
         <is>
           <t>244</t>
         </is>
       </c>
-      <c r="LV18" t="n">
+      <c r="MU18" t="n">
         <v>162</v>
       </c>
-      <c r="LW18" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX18" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY18" t="inlineStr">
-        <is>
-          <t>{'window_size': 1154}</t>
-        </is>
-      </c>
-      <c r="LZ18" t="n">
-        <v>0</v>
+      <c r="MV18" t="inlineStr">
+        <is>
+          <t>[249]</t>
+        </is>
+      </c>
+      <c r="MW18" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX18" t="inlineStr">
+        <is>
+          <t>{'window_size': 248}</t>
+        </is>
+      </c>
+      <c r="MY18" t="n">
+        <v>181</v>
       </c>
     </row>
     <row r="19">
@@ -20510,46 +21910,121 @@
       <c r="LO19" t="n">
         <v>17</v>
       </c>
-      <c r="LP19" t="inlineStr"/>
-      <c r="LQ19" t="inlineStr">
+      <c r="LP19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LQ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LR19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LS19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LT19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LU19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LV19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LW19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LX19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LY19" t="n">
+        <v>17</v>
+      </c>
+      <c r="LZ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MA19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MB19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MC19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MD19" t="n">
+        <v>17</v>
+      </c>
+      <c r="ME19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MF19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MG19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MH19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MI19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MJ19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MK19" t="n">
+        <v>17</v>
+      </c>
+      <c r="ML19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MM19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MN19" t="n">
+        <v>17</v>
+      </c>
+      <c r="MO19" t="inlineStr"/>
+      <c r="MP19" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-2_cpm_results.csv</t>
         </is>
       </c>
-      <c r="LR19" t="n">
+      <c r="MQ19" t="n">
         <v>1624</v>
       </c>
-      <c r="LS19" t="inlineStr">
+      <c r="MR19" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT19" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU19" t="inlineStr">
+      <c r="MS19" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT19" t="inlineStr">
         <is>
           <t>565; 934</t>
         </is>
       </c>
-      <c r="LV19" t="n">
+      <c r="MU19" t="n">
         <v>80</v>
       </c>
-      <c r="LW19" t="inlineStr">
-        <is>
-          <t>[5, 661]</t>
-        </is>
-      </c>
-      <c r="LX19" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY19" t="inlineStr">
-        <is>
-          <t>{'window_size': 328}</t>
-        </is>
-      </c>
-      <c r="LZ19" t="n">
-        <v>0</v>
+      <c r="MV19" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623]</t>
+        </is>
+      </c>
+      <c r="MW19" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX19" t="inlineStr">
+        <is>
+          <t>{'window_size': 808}</t>
+        </is>
+      </c>
+      <c r="MY19" t="n">
+        <v>13</v>
       </c>
     </row>
     <row r="20">
@@ -21534,46 +23009,121 @@
       <c r="LO20" t="n">
         <v>18</v>
       </c>
-      <c r="LP20" t="inlineStr"/>
-      <c r="LQ20" t="inlineStr">
+      <c r="LP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LQ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LR20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LS20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LT20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LU20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LV20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LW20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LX20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LY20" t="n">
+        <v>18</v>
+      </c>
+      <c r="LZ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MA20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MB20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MC20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MD20" t="n">
+        <v>18</v>
+      </c>
+      <c r="ME20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MF20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MG20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MH20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MI20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MJ20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MK20" t="n">
+        <v>18</v>
+      </c>
+      <c r="ML20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MM20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MN20" t="n">
+        <v>18</v>
+      </c>
+      <c r="MO20" t="inlineStr"/>
+      <c r="MP20" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-3_cpc_results.csv</t>
         </is>
       </c>
-      <c r="LR20" t="n">
+      <c r="MQ20" t="n">
         <v>1538</v>
       </c>
-      <c r="LS20" t="inlineStr">
+      <c r="MR20" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT20" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU20" t="inlineStr">
+      <c r="MS20" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT20" t="inlineStr">
         <is>
           <t>271; 413; 952</t>
         </is>
       </c>
-      <c r="LV20" t="n">
+      <c r="MU20" t="n">
         <v>50</v>
       </c>
-      <c r="LW20" t="inlineStr">
-        <is>
-          <t>[5, 296, 438]</t>
-        </is>
-      </c>
-      <c r="LX20" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY20" t="inlineStr">
-        <is>
-          <t>{'window_size': 1475}</t>
-        </is>
-      </c>
-      <c r="LZ20" t="n">
-        <v>0</v>
+      <c r="MV20" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537]</t>
+        </is>
+      </c>
+      <c r="MW20" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX20" t="inlineStr">
+        <is>
+          <t>{'window_size': 989}</t>
+        </is>
+      </c>
+      <c r="MY20" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="21">
@@ -22558,46 +24108,121 @@
       <c r="LO21" t="n">
         <v>19</v>
       </c>
-      <c r="LP21" t="inlineStr"/>
-      <c r="LQ21" t="inlineStr">
+      <c r="LP21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LQ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LR21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LS21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LT21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LU21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LV21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LW21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LX21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LY21" t="n">
+        <v>19</v>
+      </c>
+      <c r="LZ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MA21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MB21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MC21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MD21" t="n">
+        <v>19</v>
+      </c>
+      <c r="ME21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MF21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MG21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MH21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MI21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MJ21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MK21" t="n">
+        <v>19</v>
+      </c>
+      <c r="ML21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MM21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MN21" t="n">
+        <v>19</v>
+      </c>
+      <c r="MO21" t="inlineStr"/>
+      <c r="MP21" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-3_cpm_results.csv</t>
         </is>
       </c>
-      <c r="LR21" t="n">
+      <c r="MQ21" t="n">
         <v>1538</v>
       </c>
-      <c r="LS21" t="inlineStr">
+      <c r="MR21" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT21" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU21" t="inlineStr">
+      <c r="MS21" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT21" t="inlineStr">
         <is>
           <t>1045</t>
         </is>
       </c>
-      <c r="LV21" t="n">
+      <c r="MU21" t="n">
         <v>152</v>
       </c>
-      <c r="LW21" t="inlineStr">
-        <is>
-          <t>[5]</t>
-        </is>
-      </c>
-      <c r="LX21" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY21" t="inlineStr">
-        <is>
-          <t>{'window_size': 634}</t>
-        </is>
-      </c>
-      <c r="LZ21" t="n">
-        <v>0</v>
+      <c r="MV21" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537]</t>
+        </is>
+      </c>
+      <c r="MW21" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX21" t="inlineStr">
+        <is>
+          <t>{'window_size': 871}</t>
+        </is>
+      </c>
+      <c r="MY21" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="22">
@@ -23582,46 +25207,121 @@
       <c r="LO22" t="n">
         <v>20</v>
       </c>
-      <c r="LP22" t="inlineStr"/>
-      <c r="LQ22" t="inlineStr">
+      <c r="LP22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LQ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LR22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LS22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LT22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LU22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LV22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LW22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LX22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LY22" t="n">
+        <v>20</v>
+      </c>
+      <c r="LZ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MA22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MB22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MC22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MD22" t="n">
+        <v>20</v>
+      </c>
+      <c r="ME22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MF22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MG22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MH22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MI22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MJ22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MK22" t="n">
+        <v>20</v>
+      </c>
+      <c r="ML22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MM22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MN22" t="n">
+        <v>20</v>
+      </c>
+      <c r="MO22" t="inlineStr"/>
+      <c r="MP22" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-4_cpc_results.csv</t>
         </is>
       </c>
-      <c r="LR22" t="n">
+      <c r="MQ22" t="n">
         <v>1643</v>
       </c>
-      <c r="LS22" t="inlineStr">
+      <c r="MR22" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT22" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU22" t="inlineStr">
+      <c r="MS22" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT22" t="inlineStr">
         <is>
           <t>340; 749; 1249</t>
         </is>
       </c>
-      <c r="LV22" t="n">
+      <c r="MU22" t="n">
         <v>54</v>
       </c>
-      <c r="LW22" t="inlineStr">
-        <is>
-          <t>[5, 1274, 1275, 1399]</t>
-        </is>
-      </c>
-      <c r="LX22" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY22" t="inlineStr">
-        <is>
-          <t>{'window_size': 1059}</t>
-        </is>
-      </c>
-      <c r="LZ22" t="n">
-        <v>0</v>
+      <c r="MV22" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642]</t>
+        </is>
+      </c>
+      <c r="MW22" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX22" t="inlineStr">
+        <is>
+          <t>{'window_size': 963}</t>
+        </is>
+      </c>
+      <c r="MY22" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="23">
@@ -24606,46 +26306,121 @@
       <c r="LO23" t="n">
         <v>21</v>
       </c>
-      <c r="LP23" t="inlineStr"/>
-      <c r="LQ23" t="inlineStr">
+      <c r="LP23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LQ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LR23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LS23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LT23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LU23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LV23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LW23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LX23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LY23" t="n">
+        <v>21</v>
+      </c>
+      <c r="LZ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MA23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MB23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MC23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MD23" t="n">
+        <v>21</v>
+      </c>
+      <c r="ME23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MF23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MG23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MH23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MI23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MJ23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MK23" t="n">
+        <v>21</v>
+      </c>
+      <c r="ML23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MM23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MN23" t="n">
+        <v>21</v>
+      </c>
+      <c r="MO23" t="inlineStr"/>
+      <c r="MP23" t="inlineStr">
         <is>
           <t>nab-data/realAdExchange/exchange-4_cpm_results.csv</t>
         </is>
       </c>
-      <c r="LR23" t="n">
+      <c r="MQ23" t="n">
         <v>1643</v>
       </c>
-      <c r="LS23" t="inlineStr">
+      <c r="MR23" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT23" t="n">
-        <v>4</v>
-      </c>
-      <c r="LU23" t="inlineStr">
+      <c r="MS23" t="n">
+        <v>4</v>
+      </c>
+      <c r="MT23" t="inlineStr">
         <is>
           <t>347; 729; 1256; 1381</t>
         </is>
       </c>
-      <c r="LV23" t="n">
+      <c r="MU23" t="n">
         <v>40</v>
       </c>
-      <c r="LW23" t="inlineStr">
-        <is>
-          <t>[5, 516, 1274, 1399]</t>
-        </is>
-      </c>
-      <c r="LX23" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY23" t="inlineStr">
-        <is>
-          <t>{'window_size': 956}</t>
-        </is>
-      </c>
-      <c r="LZ23" t="n">
-        <v>0</v>
+      <c r="MV23" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642]</t>
+        </is>
+      </c>
+      <c r="MW23" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX23" t="inlineStr">
+        <is>
+          <t>{'window_size': 869}</t>
+        </is>
+      </c>
+      <c r="MY23" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="24">
@@ -25630,45 +27405,120 @@
       <c r="LO24" t="n">
         <v>22</v>
       </c>
-      <c r="LP24" t="inlineStr"/>
-      <c r="LQ24" t="inlineStr">
+      <c r="LP24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LQ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LR24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LS24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LT24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LU24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LV24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LW24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LX24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LY24" t="n">
+        <v>22</v>
+      </c>
+      <c r="LZ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MA24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MB24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MC24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MD24" t="n">
+        <v>22</v>
+      </c>
+      <c r="ME24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MF24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MG24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MH24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MI24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MJ24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MK24" t="n">
+        <v>22</v>
+      </c>
+      <c r="ML24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MM24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MN24" t="n">
+        <v>22</v>
+      </c>
+      <c r="MO24" t="inlineStr"/>
+      <c r="MP24" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/ambient_temperature_system_failure.csv</t>
         </is>
       </c>
-      <c r="LR24" t="n">
+      <c r="MQ24" t="n">
         <v>7267</v>
       </c>
-      <c r="LS24" t="inlineStr">
+      <c r="MR24" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT24" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU24" t="inlineStr">
+      <c r="MS24" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT24" t="inlineStr">
         <is>
           <t>3540; 5999</t>
         </is>
       </c>
-      <c r="LV24" t="n">
+      <c r="MU24" t="n">
         <v>362</v>
       </c>
-      <c r="LW24" t="inlineStr">
+      <c r="MV24" t="inlineStr">
         <is>
           <t>[5, 3721]</t>
         </is>
       </c>
-      <c r="LX24" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY24" t="inlineStr">
+      <c r="MW24" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX24" t="inlineStr">
         <is>
           <t>{'window_size': 1723}</t>
         </is>
       </c>
-      <c r="LZ24" t="n">
+      <c r="MY24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -26654,45 +28504,120 @@
       <c r="LO25" t="n">
         <v>23</v>
       </c>
-      <c r="LP25" t="inlineStr"/>
-      <c r="LQ25" t="inlineStr">
+      <c r="LP25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LQ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LR25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LS25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LT25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LU25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LV25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LW25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LX25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LY25" t="n">
+        <v>23</v>
+      </c>
+      <c r="LZ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MA25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MB25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MC25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MD25" t="n">
+        <v>23</v>
+      </c>
+      <c r="ME25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MF25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MG25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MH25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MI25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MJ25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MK25" t="n">
+        <v>23</v>
+      </c>
+      <c r="ML25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MM25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MN25" t="n">
+        <v>23</v>
+      </c>
+      <c r="MO25" t="inlineStr"/>
+      <c r="MP25" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/cpu_utilization_asg_misconfiguration.csv</t>
         </is>
       </c>
-      <c r="LR25" t="n">
+      <c r="MQ25" t="n">
         <v>18050</v>
       </c>
-      <c r="LS25" t="inlineStr">
+      <c r="MR25" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT25" t="n">
-        <v>1</v>
-      </c>
-      <c r="LU25" t="inlineStr">
+      <c r="MS25" t="n">
+        <v>1</v>
+      </c>
+      <c r="MT25" t="inlineStr">
         <is>
           <t>16551</t>
         </is>
       </c>
-      <c r="LV25" t="n">
+      <c r="MU25" t="n">
         <v>1498</v>
       </c>
-      <c r="LW25" t="inlineStr">
+      <c r="MV25" t="inlineStr">
         <is>
           <t>[5]</t>
         </is>
       </c>
-      <c r="LX25" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY25" t="inlineStr">
+      <c r="MW25" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX25" t="inlineStr">
         <is>
           <t>{'window_size': 1048}</t>
         </is>
       </c>
-      <c r="LZ25" t="n">
+      <c r="MY25" t="n">
         <v>3</v>
       </c>
     </row>
@@ -27678,45 +29603,120 @@
       <c r="LO26" t="n">
         <v>24</v>
       </c>
-      <c r="LP26" t="inlineStr"/>
-      <c r="LQ26" t="inlineStr">
+      <c r="LP26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LQ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LR26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LS26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LT26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LU26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LV26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LW26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LX26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LY26" t="n">
+        <v>24</v>
+      </c>
+      <c r="LZ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MB26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MC26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MD26" t="n">
+        <v>24</v>
+      </c>
+      <c r="ME26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MF26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MG26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MH26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MI26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MJ26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MK26" t="n">
+        <v>24</v>
+      </c>
+      <c r="ML26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MM26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MN26" t="n">
+        <v>24</v>
+      </c>
+      <c r="MO26" t="inlineStr"/>
+      <c r="MP26" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/ec2_request_latency_system_failure.csv</t>
         </is>
       </c>
-      <c r="LR26" t="n">
+      <c r="MQ26" t="n">
         <v>4032</v>
       </c>
-      <c r="LS26" t="inlineStr">
+      <c r="MR26" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT26" t="n">
-        <v>3</v>
-      </c>
-      <c r="LU26" t="inlineStr">
+      <c r="MS26" t="n">
+        <v>3</v>
+      </c>
+      <c r="MT26" t="inlineStr">
         <is>
           <t>2014; 3328; 3956</t>
         </is>
       </c>
-      <c r="LV26" t="n">
+      <c r="MU26" t="n">
         <v>134</v>
       </c>
-      <c r="LW26" t="inlineStr">
+      <c r="MV26" t="inlineStr">
         <is>
           <t>[5, 3392, 3393, 3394, 3395, 4028]</t>
         </is>
       </c>
-      <c r="LX26" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY26" t="inlineStr">
+      <c r="MW26" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX26" t="inlineStr">
         <is>
           <t>{'window_size': 532}</t>
         </is>
       </c>
-      <c r="LZ26" t="n">
+      <c r="MY26" t="n">
         <v>0</v>
       </c>
     </row>
@@ -28702,45 +30702,120 @@
       <c r="LO27" t="n">
         <v>25</v>
       </c>
-      <c r="LP27" t="inlineStr"/>
-      <c r="LQ27" t="inlineStr">
+      <c r="LP27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LQ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LR27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LS27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LT27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LU27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LV27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LW27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LX27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LY27" t="n">
+        <v>25</v>
+      </c>
+      <c r="LZ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MA27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MB27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MC27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MD27" t="n">
+        <v>25</v>
+      </c>
+      <c r="ME27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MF27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MG27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MH27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MI27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MJ27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MK27" t="n">
+        <v>25</v>
+      </c>
+      <c r="ML27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MM27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MN27" t="n">
+        <v>25</v>
+      </c>
+      <c r="MO27" t="inlineStr"/>
+      <c r="MP27" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/machine_temperature_system_failure.csv</t>
         </is>
       </c>
-      <c r="LR27" t="n">
+      <c r="MQ27" t="n">
         <v>22695</v>
       </c>
-      <c r="LS27" t="inlineStr">
+      <c r="MR27" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT27" t="n">
-        <v>4</v>
-      </c>
-      <c r="LU27" t="inlineStr">
+      <c r="MS27" t="n">
+        <v>4</v>
+      </c>
+      <c r="MT27" t="inlineStr">
         <is>
           <t>2126; 3703; 16057; 19232</t>
         </is>
       </c>
-      <c r="LV27" t="n">
+      <c r="MU27" t="n">
         <v>566</v>
       </c>
-      <c r="LW27" t="inlineStr">
+      <c r="MV27" t="inlineStr">
         <is>
           <t>[5, 3969, 3970, 3971, 3972, 3973, 3974, 3975, 3976, 3977, 3978, 3979, 3980, 3981, 3982, 3983, 3984, 3985, 3986, 19483, 19484, 19489, 19490, 19491, 19492, 19493, 19494, 19495, 19496, 19497, 19498, 19499, 19500, 19501, 19502, 19503, 19504, 19505, 19506, 19507, 19508, 19509, 19510, 19511, 19512, 19513, 19514, 19515, 19516, 19517, 19518, 19519, 19520, 19521, 19522, 19523, 19524, 19525, 19526, 19527, 19528, 19529, 19530, 19531, 19731, 19750]</t>
         </is>
       </c>
-      <c r="LX27" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY27" t="inlineStr">
+      <c r="MW27" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX27" t="inlineStr">
         <is>
           <t>{'window_size': 1686}</t>
         </is>
       </c>
-      <c r="LZ27" t="n">
+      <c r="MY27" t="n">
         <v>5</v>
       </c>
     </row>
@@ -29726,45 +31801,120 @@
       <c r="LO28" t="n">
         <v>26</v>
       </c>
-      <c r="LP28" t="inlineStr"/>
-      <c r="LQ28" t="inlineStr">
+      <c r="LP28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LQ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LR28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LS28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LT28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LU28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LV28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LW28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LX28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LY28" t="n">
+        <v>26</v>
+      </c>
+      <c r="LZ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MA28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MB28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MC28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MD28" t="n">
+        <v>26</v>
+      </c>
+      <c r="ME28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MF28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MG28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MH28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MI28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MJ28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MK28" t="n">
+        <v>26</v>
+      </c>
+      <c r="ML28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MM28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MN28" t="n">
+        <v>26</v>
+      </c>
+      <c r="MO28" t="inlineStr"/>
+      <c r="MP28" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/nyc_taxi.csv</t>
         </is>
       </c>
-      <c r="LR28" t="n">
+      <c r="MQ28" t="n">
         <v>10320</v>
       </c>
-      <c r="LS28" t="inlineStr">
+      <c r="MR28" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT28" t="n">
-        <v>5</v>
-      </c>
-      <c r="LU28" t="inlineStr">
+      <c r="MS28" t="n">
+        <v>5</v>
+      </c>
+      <c r="MT28" t="inlineStr">
         <is>
           <t>5839; 7080; 8423; 8731; 9977</t>
         </is>
       </c>
-      <c r="LV28" t="n">
+      <c r="MU28" t="n">
         <v>206</v>
       </c>
-      <c r="LW28" t="inlineStr">
+      <c r="MV28" t="inlineStr">
         <is>
           <t>[5, 3260, 3261, 5278, 5953, 5954, 8832, 8833]</t>
         </is>
       </c>
-      <c r="LX28" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY28" t="inlineStr">
+      <c r="MW28" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX28" t="inlineStr">
         <is>
           <t>{'window_size': 680}</t>
         </is>
       </c>
-      <c r="LZ28" t="n">
+      <c r="MY28" t="n">
         <v>2</v>
       </c>
     </row>
@@ -30750,46 +32900,121 @@
       <c r="LO29" t="n">
         <v>27</v>
       </c>
-      <c r="LP29" t="inlineStr"/>
-      <c r="LQ29" t="inlineStr">
+      <c r="LP29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LQ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LR29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LS29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LT29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LU29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LV29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LW29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LX29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LY29" t="n">
+        <v>27</v>
+      </c>
+      <c r="LZ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MA29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MB29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MC29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MD29" t="n">
+        <v>27</v>
+      </c>
+      <c r="ME29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MF29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MG29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MH29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MI29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MJ29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MK29" t="n">
+        <v>27</v>
+      </c>
+      <c r="ML29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MM29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MN29" t="n">
+        <v>27</v>
+      </c>
+      <c r="MO29" t="inlineStr"/>
+      <c r="MP29" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/rogue_agent_key_hold.csv</t>
         </is>
       </c>
-      <c r="LR29" t="n">
+      <c r="MQ29" t="n">
         <v>1882</v>
       </c>
-      <c r="LS29" t="inlineStr">
+      <c r="MR29" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT29" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU29" t="inlineStr">
+      <c r="MS29" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT29" t="inlineStr">
         <is>
           <t>669; 1240</t>
         </is>
       </c>
-      <c r="LV29" t="n">
+      <c r="MU29" t="n">
         <v>94</v>
       </c>
-      <c r="LW29" t="inlineStr">
-        <is>
-          <t>[5, 1619]</t>
-        </is>
-      </c>
-      <c r="LX29" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY29" t="inlineStr">
-        <is>
-          <t>{'window_size': 1331}</t>
-        </is>
-      </c>
-      <c r="LZ29" t="n">
-        <v>0</v>
+      <c r="MV29" t="inlineStr">
+        <is>
+          <t>[0, 1, 2, 3, 4, 5, 6, 7, 8, 9, 10, 11, 12, 13, 14, 15, 16, 17, 18, 19, 20, 21, 22, 23, 24, 25, 26, 27, 28, 29, 30, 31, 32, 33, 34, 35, 36, 37, 38, 39, 40, 41, 42, 43, 44, 45, 46, 47, 48, 49, 50, 51, 52, 53, 54, 55, 56, 57, 58, 59, 60, 61, 62, 63, 64, 65, 66, 67, 68, 69, 70, 71, 72, 73, 74, 75, 76, 77, 78, 79, 80, 81, 82, 83, 84, 85, 86, 87, 88, 89, 90, 91, 92, 93, 94, 95, 96, 97, 98, 99, 100, 101, 102, 103, 104, 105, 106, 107, 108, 109, 110, 111, 112, 113, 114, 115, 116, 117, 118, 119, 120, 121, 122, 123, 124, 125, 126, 127, 128, 129, 130, 131, 132, 133, 134, 135, 136, 137, 138, 139, 140, 141, 142, 143, 144, 145, 146, 147, 148, 149, 150, 151, 152, 153, 154, 155, 156, 157, 158, 159, 160, 161, 162, 163, 164, 165, 166, 167, 168, 169, 170, 171, 172, 173, 174, 175, 176, 177, 178, 179, 180, 181, 182, 183, 184, 185, 186, 187, 188, 189, 190, 191, 192, 193, 194, 195, 196, 197, 198, 199, 200, 201, 202, 203, 204, 205, 206, 207, 208, 209, 210, 211, 212, 213, 214, 215, 216, 217, 218, 219, 220, 221, 222, 223, 224, 225, 226, 227, 228, 229, 230, 231, 232, 233, 234, 235, 236, 237, 238, 239, 240, 241, 242, 243, 244, 245, 246, 247, 248, 249, 250, 251, 252, 253, 254, 255, 256, 257, 258, 259, 260, 261, 262, 263, 264, 265, 266, 267, 268, 269, 270, 271, 272, 273, 274, 275, 276, 277, 278, 279, 280, 281, 282, 283, 284, 285, 286, 287, 288, 289, 290, 291, 292, 293, 294, 295, 296, 297, 298, 299, 300, 301, 302, 303, 304, 305, 306, 307, 308, 309, 310, 311, 312, 313, 314, 315, 316, 317, 318, 319, 320, 321, 322, 323, 324, 325, 326, 327, 328, 329, 330, 331, 332, 333, 334, 335, 336, 337, 338, 339, 340, 341, 342, 343, 344, 345, 346, 347, 348, 349, 350, 351, 352, 353, 354, 355, 356, 357, 358, 359, 360, 361, 362, 363, 364, 365, 366, 367, 368, 369, 370, 371, 372, 373, 374, 375, 376, 377, 378, 379, 380, 381, 382, 383, 384, 385, 386, 387, 388, 389, 390, 391, 392, 393, 394, 395, 396, 397, 398, 399, 400, 401, 402, 403, 404, 405, 406, 407, 408, 409, 410, 411, 412, 413, 414, 415, 416, 417, 418, 419, 420, 421, 422, 423, 424, 425, 426, 427, 428, 429, 430, 431, 432, 433, 434, 435, 436, 437, 438, 439, 440, 441, 442, 443, 444, 445, 446, 447, 448, 449, 450, 451, 452, 453, 454, 455, 456, 457, 458, 459, 460, 461, 462, 463, 464, 465, 466, 467, 468, 469, 470, 471, 472, 473, 474, 475, 476, 477, 478, 479, 480, 481, 482, 483, 484, 485, 486, 487, 488, 489, 490, 491, 492, 493, 494, 495, 496, 497, 498, 499, 500, 501, 502, 503, 504, 505, 506, 507, 508, 509, 510, 511, 512, 513, 514, 515, 516, 517, 518, 519, 520, 521, 522, 523, 524, 525, 526, 527, 528, 529, 530, 531, 532, 533, 534, 535, 536, 537, 538, 539, 540, 541, 542, 543, 544, 545, 546, 547, 548, 549, 550, 551, 552, 553, 554, 555, 556, 557, 558, 559, 560, 561, 562, 563, 564, 565, 566, 567, 568, 569, 570, 571, 572, 573, 574, 575, 576, 577, 578, 579, 580, 581, 582, 583, 584, 585, 586, 587, 588, 589, 590, 591, 592, 593, 594, 595, 596, 597, 598, 599, 600, 601, 602, 603, 604, 605, 606, 607, 608, 609, 610, 611, 612, 613, 614, 615, 616, 617, 618, 619, 620, 621, 622, 623, 624, 625, 626, 627, 628, 629, 630, 631, 632, 633, 634, 635, 636, 637, 638, 639, 640, 641, 642, 643, 644, 645, 646, 647, 648, 649, 650, 651, 652, 653, 654, 655, 656, 657, 658, 659, 660, 661, 662, 663, 664, 665, 666, 667, 668, 669, 670, 671, 672, 673, 674, 675, 676, 677, 678, 679, 680, 681, 682, 683, 684, 685, 686, 687, 688, 689, 690, 691, 692, 693, 694, 695, 696, 697, 698, 699, 700, 701, 702, 703, 704, 705, 706, 707, 708, 709, 710, 711, 712, 713, 714, 715, 716, 717, 718, 719, 720, 721, 722, 723, 724, 725, 726, 727, 728, 729, 730, 731, 732, 733, 734, 735, 736, 737, 738, 739, 740, 741, 742, 743, 744, 745, 746, 747, 748, 749, 750, 751, 752, 753, 754, 755, 756, 757, 758, 759, 760, 761, 762, 763, 764, 765, 766, 767, 768, 769, 770, 771, 772, 773, 774, 775, 776, 777, 778, 779, 780, 781, 782, 783, 784, 785, 786, 787, 788, 789, 790, 791, 792, 793, 794, 795, 796, 797, 798, 799, 800, 801, 802, 803, 804, 805, 806, 807, 808, 809, 810, 811, 812, 813, 814, 815, 816, 817, 818, 819, 820, 821, 822, 823, 824, 825, 826, 827, 828, 829, 830, 831, 832, 833, 834, 835, 836, 837, 838, 839, 840, 841, 842, 843, 844, 845, 846, 847, 848, 849, 850, 851, 852, 853, 854, 855, 856, 857, 858, 859, 860, 861, 862, 863, 864, 865, 866, 867, 868, 869, 870, 871, 872, 873, 874, 875, 876, 877, 878, 879, 880, 881, 882, 883, 884, 885, 886, 887, 888, 889, 890, 891, 892, 893, 894, 895, 896, 897, 898, 899, 900, 901, 902, 903, 904, 905, 906, 907, 908, 909, 910, 911, 912, 913, 914, 915, 916, 917, 918, 919, 920, 921, 922, 923, 924, 925, 926, 927, 928, 929, 930, 931, 932, 933, 934, 935, 936, 937, 938, 939, 940, 941, 942, 943, 944, 945, 946, 947, 948, 949, 950, 951, 952, 953, 954, 955, 956, 957, 958, 959, 960, 961, 962, 963, 964, 965, 966, 967, 968, 969, 970, 971, 972, 973, 974, 975, 976, 977, 978, 979, 980, 981, 982, 983, 984, 985, 986, 987, 988, 989, 990, 991, 992, 993, 994, 995, 996, 997, 998, 999, 1000, 1001, 1002, 1003, 1004, 1005, 1006, 1007, 1008, 1009, 1010, 1011, 1012, 1013, 1014, 1015, 1016, 1017, 1018, 1019, 1020, 1021, 1022, 1023, 1024, 1025, 1026, 1027, 1028, 1029, 1030, 1031, 1032, 1033, 1034, 1035, 1036, 1037, 1038, 1039, 1040, 1041, 1042, 1043, 1044, 1045, 1046, 1047, 1048, 1049, 1050, 1051, 1052, 1053, 1054, 1055, 1056, 1057, 1058, 1059, 1060, 1061, 1062, 1063, 1064, 1065, 1066, 1067, 1068, 1069, 1070, 1071, 1072, 1073, 1074, 1075, 1076, 1077, 1078, 1079, 1080, 1081, 1082, 1083, 1084, 1085, 1086, 1087, 1088, 1089, 1090, 1091, 1092, 1093, 1094, 1095, 1096, 1097, 1098, 1099, 1100, 1101, 1102, 1103, 1104, 1105, 1106, 1107, 1108, 1109, 1110, 1111, 1112, 1113, 1114, 1115, 1116, 1117, 1118, 1119, 1120, 1121, 1122, 1123, 1124, 1125, 1126, 1127, 1128, 1129, 1130, 1131, 1132, 1133, 1134, 1135, 1136, 1137, 1138, 1139, 1140, 1141, 1142, 1143, 1144, 1145, 1146, 1147, 1148, 1149, 1150, 1151, 1152, 1153, 1154, 1155, 1156, 1157, 1158, 1159, 1160, 1161, 1162, 1163, 1164, 1165, 1166, 1167, 1168, 1169, 1170, 1171, 1172, 1173, 1174, 1175, 1176, 1177, 1178, 1179, 1180, 1181, 1182, 1183, 1184, 1185, 1186, 1187, 1188, 1189, 1190, 1191, 1192, 1193, 1194, 1195, 1196, 1197, 1198, 1199, 1200, 1201, 1202, 1203, 1204, 1205, 1206, 1207, 1208, 1209, 1210, 1211, 1212, 1213, 1214, 1215, 1216, 1217, 1218, 1219, 1220, 1221, 1222, 1223, 1224, 1225, 1226, 1227, 1228, 1229, 1230, 1231, 1232, 1233, 1234, 1235, 1236, 1237, 1238, 1239, 1240, 1241, 1242, 1243, 1244, 1245, 1246, 1247, 1248, 1249, 1250, 1251, 1252, 1253, 1254, 1255, 1256, 1257, 1258, 1259, 1260, 1261, 1262, 1263, 1264, 1265, 1266, 1267, 1268, 1269, 1270, 1271, 1272, 1273, 1274, 1275, 1276, 1277, 1278, 1279, 1280, 1281, 1282, 1283, 1284, 1285, 1286, 1287, 1288, 1289, 1290, 1291, 1292, 1293, 1294, 1295, 1296, 1297, 1298, 1299, 1300, 1301, 1302, 1303, 1304, 1305, 1306, 1307, 1308, 1309, 1310, 1311, 1312, 1313, 1314, 1315, 1316, 1317, 1318, 1319, 1320, 1321, 1322, 1323, 1324, 1325, 1326, 1327, 1328, 1329, 1330, 1331, 1332, 1333, 1334, 1335, 1336, 1337, 1338, 1339, 1340, 1341, 1342, 1343, 1344, 1345, 1346, 1347, 1348, 1349, 1350, 1351, 1352, 1353, 1354, 1355, 1356, 1357, 1358, 1359, 1360, 1361, 1362, 1363, 1364, 1365, 1366, 1367, 1368, 1369, 1370, 1371, 1372, 1373, 1374, 1375, 1376, 1377, 1378, 1379, 1380, 1381, 1382, 1383, 1384, 1385, 1386, 1387, 1388, 1389, 1390, 1391, 1392, 1393, 1394, 1395, 1396, 1397, 1398, 1399, 1400, 1401, 1402, 1403, 1404, 1405, 1406, 1407, 1408, 1409, 1410, 1411, 1412, 1413, 1414, 1415, 1416, 1417, 1418, 1419, 1420, 1421, 1422, 1423, 1424, 1425, 1426, 1427, 1428, 1429, 1430, 1431, 1432, 1433, 1434, 1435, 1436, 1437, 1438, 1439, 1440, 1441, 1442, 1443, 1444, 1445, 1446, 1447, 1448, 1449, 1450, 1451, 1452, 1453, 1454, 1455, 1456, 1457, 1458, 1459, 1460, 1461, 1462, 1463, 1464, 1465, 1466, 1467, 1468, 1469, 1470, 1471, 1472, 1473, 1474, 1475, 1476, 1477, 1478, 1479, 1480, 1481, 1482, 1483, 1484, 1485, 1486, 1487, 1488, 1489, 1490, 1491, 1492, 1493, 1494, 1495, 1496, 1497, 1498, 1499, 1500, 1501, 1502, 1503, 1504, 1505, 1506, 1507, 1508, 1509, 1510, 1511, 1512, 1513, 1514, 1515, 1516, 1517, 1518, 1519, 1520, 1521, 1522, 1523, 1524, 1525, 1526, 1527, 1528, 1529, 1530, 1531, 1532, 1533, 1534, 1535, 1536, 1537, 1538, 1539, 1540, 1541, 1542, 1543, 1544, 1545, 1546, 1547, 1548, 1549, 1550, 1551, 1552, 1553, 1554, 1555, 1556, 1557, 1558, 1559, 1560, 1561, 1562, 1563, 1564, 1565, 1566, 1567, 1568, 1569, 1570, 1571, 1572, 1573, 1574, 1575, 1576, 1577, 1578, 1579, 1580, 1581, 1582, 1583, 1584, 1585, 1586, 1587, 1588, 1589, 1590, 1591, 1592, 1593, 1594, 1595, 1596, 1597, 1598, 1599, 1600, 1601, 1602, 1603, 1604, 1605, 1606, 1607, 1608, 1609, 1610, 1611, 1612, 1613, 1614, 1615, 1616, 1617, 1618, 1619, 1620, 1621, 1622, 1623, 1624, 1625, 1626, 1627, 1628, 1629, 1630, 1631, 1632, 1633, 1634, 1635, 1636, 1637, 1638, 1639, 1640, 1641, 1642, 1643, 1644, 1645, 1646, 1647, 1648, 1649, 1650, 1651, 1652, 1653, 1654, 1655, 1656, 1657, 1658, 1659, 1660, 1661, 1662, 1663, 1664, 1665, 1666, 1667, 1668, 1669, 1670, 1671, 1672, 1673, 1674, 1675, 1676, 1677, 1678, 1679, 1680, 1681, 1682, 1683, 1684, 1685, 1686, 1687, 1688, 1689, 1690, 1691, 1692, 1693, 1694, 1695, 1696, 1697, 1698, 1699, 1700, 1701, 1702, 1703, 1704, 1705, 1706, 1707, 1708, 1709, 1710, 1711, 1712, 1713, 1714, 1715, 1716, 1717, 1718, 1719, 1720, 1721, 1722, 1723, 1724, 1725, 1726, 1727, 1728, 1729, 1730, 1731, 1732, 1733, 1734, 1735, 1736, 1737, 1738, 1739, 1740, 1741, 1742, 1743, 1744, 1745, 1746, 1747, 1748, 1749, 1750, 1751, 1752, 1753, 1754, 1755, 1756, 1757, 1758, 1759, 1760, 1761, 1762, 1763, 1764, 1765, 1766, 1767, 1768, 1769, 1770, 1771, 1772, 1773, 1774, 1775, 1776, 1777, 1778, 1779, 1780, 1781, 1782, 1783, 1784, 1785, 1786, 1787, 1788, 1789, 1790, 1791, 1792, 1793, 1794, 1795, 1796, 1797, 1798, 1799, 1800, 1801, 1802, 1803, 1804, 1805, 1806, 1807, 1808, 1809, 1810, 1811, 1812, 1813, 1814, 1815, 1816, 1817, 1818, 1819, 1820, 1821, 1822, 1823, 1824, 1825, 1826, 1827, 1828, 1829, 1830, 1831, 1832, 1833, 1834, 1835, 1836, 1837, 1838, 1839, 1840, 1841, 1842, 1843, 1844, 1845, 1846, 1847, 1848, 1849, 1850, 1851, 1852, 1853, 1854, 1855, 1856, 1857, 1858, 1859, 1860, 1861, 1862, 1863, 1864, 1865, 1866, 1867, 1868, 1869, 1870, 1871, 1872, 1873, 1874, 1875, 1876, 1877, 1878, 1879, 1880, 1881]</t>
+        </is>
+      </c>
+      <c r="MW29" t="n">
+        <v>1</v>
+      </c>
+      <c r="MX29" t="inlineStr">
+        <is>
+          <t>{'window_size': 985}</t>
+        </is>
+      </c>
+      <c r="MY29" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="30">
@@ -31774,45 +33999,120 @@
       <c r="LO30" t="n">
         <v>28</v>
       </c>
-      <c r="LP30" t="inlineStr"/>
-      <c r="LQ30" t="inlineStr">
+      <c r="LP30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LQ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LR30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LS30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LT30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LU30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LV30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LW30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LX30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LY30" t="n">
+        <v>28</v>
+      </c>
+      <c r="LZ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MA30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MB30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MC30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MD30" t="n">
+        <v>28</v>
+      </c>
+      <c r="ME30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MF30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MG30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MH30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MI30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MJ30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MK30" t="n">
+        <v>28</v>
+      </c>
+      <c r="ML30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MM30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MN30" t="n">
+        <v>28</v>
+      </c>
+      <c r="MO30" t="inlineStr"/>
+      <c r="MP30" t="inlineStr">
         <is>
           <t>nab-data/realKnownCause/rogue_agent_key_updown.csv</t>
         </is>
       </c>
-      <c r="LR30" t="n">
+      <c r="MQ30" t="n">
         <v>5315</v>
       </c>
-      <c r="LS30" t="inlineStr">
+      <c r="MR30" t="inlineStr">
         <is>
           <t>NAB</t>
         </is>
       </c>
-      <c r="LT30" t="n">
-        <v>2</v>
-      </c>
-      <c r="LU30" t="inlineStr">
+      <c r="MS30" t="n">
+        <v>2</v>
+      </c>
+      <c r="MT30" t="inlineStr">
         <is>
           <t>2243; 2877</t>
         </is>
       </c>
-      <c r="LV30" t="n">
+      <c r="MU30" t="n">
         <v>264</v>
       </c>
-      <c r="LW30" t="inlineStr">
+      <c r="MV30" t="inlineStr">
         <is>
           <t>[5, 1145]</t>
         </is>
       </c>
-      <c r="LX30" t="n">
-        <v>0</v>
-      </c>
-      <c r="LY30" t="inlineStr">
+      <c r="MW30" t="n">
+        <v>0</v>
+      </c>
+      <c r="MX30" t="inlineStr">
         <is>
           <t>{'window_size': 450}</t>
         </is>
       </c>
-      <c r="LZ30" t="n">
+      <c r="MY30" t="n">
         <v>1</v>
       </c>
     </row>
